--- a/datastatic/datasets/online/D-Energy_Energy_consumption_per_capita_WB_2012.xlsx
+++ b/datastatic/datasets/online/D-Energy_Energy_consumption_per_capita_WB_2012.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="D-Energy_Energy_consumption_per_capita_WB_2012.csv" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="D-Energy_Energy_consumption_per" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>

--- a/datastatic/datasets/online/D-Energy_Energy_consumption_per_capita_WB_2012.xlsx
+++ b/datastatic/datasets/online/D-Energy_Energy_consumption_per_capita_WB_2012.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="236">
   <si>
     <t>original_title</t>
   </si>
@@ -335,9 +335,6 @@
   </si>
   <si>
     <t>European Union</t>
-  </si>
-  <si>
-    <t>Fragile and conflict affected situations</t>
   </si>
   <si>
     <t>Finland</t>
@@ -731,7 +728,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -751,6 +748,11 @@
       <b/>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -793,7 +795,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -836,11 +838,14 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1154,7 +1159,9 @@
       <c r="A38" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="14"/>
+      <c r="B38" s="14">
+        <v>654.9054806</v>
+      </c>
       <c r="C38" s="15">
         <v>654.9054806</v>
       </c>
@@ -1166,7 +1173,9 @@
       <c r="A39" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="14"/>
+      <c r="B39" s="14">
+        <v>800.5687255</v>
+      </c>
       <c r="C39" s="15">
         <v>800.5687255</v>
       </c>
@@ -1178,7 +1187,9 @@
       <c r="A40" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="14"/>
+      <c r="B40" s="14">
+        <v>1814.063534</v>
+      </c>
       <c r="C40" s="15">
         <v>1814.063534</v>
       </c>
@@ -1190,7 +1201,9 @@
       <c r="A41" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="14"/>
+      <c r="B41" s="14">
+        <v>7691.013739</v>
+      </c>
       <c r="C41" s="15">
         <v>7691.013739</v>
       </c>
@@ -1202,7 +1215,9 @@
       <c r="A42" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="14"/>
+      <c r="B42" s="14">
+        <v>1894.617872</v>
+      </c>
       <c r="C42" s="15">
         <v>1894.617872</v>
       </c>
@@ -1214,7 +1229,9 @@
       <c r="A43" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="14"/>
+      <c r="B43" s="14">
+        <v>969.3097903</v>
+      </c>
       <c r="C43" s="15">
         <v>969.3097903</v>
       </c>
@@ -1254,7 +1271,9 @@
       <c r="A46" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B46" s="14"/>
+      <c r="B46" s="14">
+        <v>1474.003433</v>
+      </c>
       <c r="C46" s="15">
         <v>1474.003433</v>
       </c>
@@ -1280,7 +1299,9 @@
       <c r="A48" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="14"/>
+      <c r="B48" s="14">
+        <v>393.3838147</v>
+      </c>
       <c r="C48" s="15">
         <v>393.3838147</v>
       </c>
@@ -1292,7 +1313,9 @@
       <c r="A49" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B49" s="14"/>
+      <c r="B49" s="14">
+        <v>215.5167195</v>
+      </c>
       <c r="C49" s="15">
         <v>215.5167195</v>
       </c>
@@ -1304,7 +1327,9 @@
       <c r="A50" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B50" s="14"/>
+      <c r="B50" s="14">
+        <v>2327.436524</v>
+      </c>
       <c r="C50" s="15">
         <v>2327.436524</v>
       </c>
@@ -1316,7 +1341,9 @@
       <c r="A51" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B51" s="14"/>
+      <c r="B51" s="14">
+        <v>10171.68102</v>
+      </c>
       <c r="C51" s="15">
         <v>10171.68102</v>
       </c>
@@ -1328,7 +1355,9 @@
       <c r="A52" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B52" s="14"/>
+      <c r="B52" s="14">
+        <v>1687.968693</v>
+      </c>
       <c r="C52" s="15">
         <v>1687.968693</v>
       </c>
@@ -1340,7 +1369,9 @@
       <c r="A53" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="14"/>
+      <c r="B53" s="14">
+        <v>2881.506444</v>
+      </c>
       <c r="C53" s="15">
         <v>2881.506444</v>
       </c>
@@ -1352,7 +1383,9 @@
       <c r="A54" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="14"/>
+      <c r="B54" s="14">
+        <v>785.5170385</v>
+      </c>
       <c r="C54" s="15">
         <v>785.5170385</v>
       </c>
@@ -1364,7 +1397,9 @@
       <c r="A55" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B55" s="14"/>
+      <c r="B55" s="14">
+        <v>1437.795989</v>
+      </c>
       <c r="C55" s="15">
         <v>1437.795989</v>
       </c>
@@ -1376,7 +1411,9 @@
       <c r="A56" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B56" s="14"/>
+      <c r="B56" s="14">
+        <v>7392.868512</v>
+      </c>
       <c r="C56" s="15">
         <v>7392.868512</v>
       </c>
@@ -1388,7 +1425,9 @@
       <c r="A57" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B57" s="14"/>
+      <c r="B57" s="14">
+        <v>1098.358841</v>
+      </c>
       <c r="C57" s="15">
         <v>1098.358841</v>
       </c>
@@ -1414,7 +1453,9 @@
       <c r="A59" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="14"/>
+      <c r="B59" s="14">
+        <v>2506.956958</v>
+      </c>
       <c r="C59" s="15">
         <v>2506.956958</v>
       </c>
@@ -1454,7 +1495,9 @@
       <c r="A62" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B62" s="14"/>
+      <c r="B62" s="14">
+        <v>2226.269871</v>
+      </c>
       <c r="C62" s="15">
         <v>2226.269871</v>
       </c>
@@ -1466,7 +1509,9 @@
       <c r="A63" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B63" s="14"/>
+      <c r="B63" s="14">
+        <v>605.2861164</v>
+      </c>
       <c r="C63" s="15">
         <v>605.2861164</v>
       </c>
@@ -1478,7 +1523,9 @@
       <c r="A64" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B64" s="14"/>
+      <c r="B64" s="14">
+        <v>330.7129396</v>
+      </c>
       <c r="C64" s="15">
         <v>330.7129396</v>
       </c>
@@ -1490,7 +1537,9 @@
       <c r="A65" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B65" s="14"/>
+      <c r="B65" s="14">
+        <v>555.7879761</v>
+      </c>
       <c r="C65" s="15">
         <v>555.7879761</v>
       </c>
@@ -1502,7 +1551,9 @@
       <c r="A66" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B66" s="14"/>
+      <c r="B66" s="14">
+        <v>668.504126</v>
+      </c>
       <c r="C66" s="15">
         <v>668.504126</v>
       </c>
@@ -1514,7 +1565,9 @@
       <c r="A67" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B67" s="14"/>
+      <c r="B67" s="14">
+        <v>1029.003494</v>
+      </c>
       <c r="C67" s="15">
         <v>1029.003494</v>
       </c>
@@ -1526,7 +1579,9 @@
       <c r="A68" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B68" s="14"/>
+      <c r="B68" s="14">
+        <v>1030.88069</v>
+      </c>
       <c r="C68" s="15">
         <v>1030.88069</v>
       </c>
@@ -1538,7 +1593,9 @@
       <c r="A69" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B69" s="14"/>
+      <c r="B69" s="14">
+        <v>11800.97775</v>
+      </c>
       <c r="C69" s="15">
         <v>11800.97775</v>
       </c>
@@ -1550,7 +1607,9 @@
       <c r="A70" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B70" s="14"/>
+      <c r="B70" s="14">
+        <v>1691.102893</v>
+      </c>
       <c r="C70" s="15">
         <v>1691.102893</v>
       </c>
@@ -1604,7 +1663,9 @@
       <c r="A74" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B74" s="14"/>
+      <c r="B74" s="14">
+        <v>731.3131626</v>
+      </c>
       <c r="C74" s="15">
         <v>731.3131626</v>
       </c>
@@ -1616,7 +1677,9 @@
       <c r="A75" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B75" s="14"/>
+      <c r="B75" s="14">
+        <v>1245.992191</v>
+      </c>
       <c r="C75" s="15">
         <v>1245.992191</v>
       </c>
@@ -1628,7 +1691,9 @@
       <c r="A76" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B76" s="14"/>
+      <c r="B76" s="14">
+        <v>1812.896019</v>
+      </c>
       <c r="C76" s="15">
         <v>1812.896019</v>
       </c>
@@ -1640,7 +1705,9 @@
       <c r="A77" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B77" s="14"/>
+      <c r="B77" s="14">
+        <v>884.3105619</v>
+      </c>
       <c r="C77" s="15">
         <v>884.3105619</v>
       </c>
@@ -1652,7 +1719,9 @@
       <c r="A78" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B78" s="14"/>
+      <c r="B78" s="14">
+        <v>2073.454793</v>
+      </c>
       <c r="C78" s="15">
         <v>2073.454793</v>
       </c>
@@ -1664,7 +1733,9 @@
       <c r="A79" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B79" s="14"/>
+      <c r="B79" s="14">
+        <v>3076.213157</v>
+      </c>
       <c r="C79" s="15">
         <v>3076.213157</v>
       </c>
@@ -1676,7 +1747,9 @@
       <c r="A80" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B80" s="14"/>
+      <c r="B80" s="14">
+        <v>3212.078365</v>
+      </c>
       <c r="C80" s="15">
         <v>3212.078365</v>
       </c>
@@ -1688,7 +1761,9 @@
       <c r="A81" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B81" s="14"/>
+      <c r="B81" s="14">
+        <v>979.7547613</v>
+      </c>
       <c r="C81" s="15">
         <v>979.7547613</v>
       </c>
@@ -1700,7 +1775,9 @@
       <c r="A82" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B82" s="14"/>
+      <c r="B82" s="14">
+        <v>884.9922334</v>
+      </c>
       <c r="C82" s="15">
         <v>884.9922334</v>
       </c>
@@ -1754,7 +1831,9 @@
       <c r="A86" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B86" s="14"/>
+      <c r="B86" s="14">
+        <v>506.9752997</v>
+      </c>
       <c r="C86" s="15">
         <v>506.9752997</v>
       </c>
@@ -1780,12 +1859,14 @@
       <c r="A88" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B88" s="14"/>
+      <c r="B88" s="15">
+        <v>6266.859068</v>
+      </c>
       <c r="C88" s="15">
-        <v>560.1145117</v>
+        <v>6074.749787</v>
       </c>
       <c r="D88" s="15">
-        <v>547.1278526</v>
+        <v>6269.755416</v>
       </c>
     </row>
     <row r="89">
@@ -1793,301 +1874,311 @@
         <v>109</v>
       </c>
       <c r="B89" s="15">
-        <v>6266.859068</v>
+        <v>3641.110525</v>
       </c>
       <c r="C89" s="15">
-        <v>6074.749787</v>
+        <v>3839.856993</v>
       </c>
       <c r="D89" s="15">
-        <v>6269.755416</v>
+        <v>3844.554559</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B90" s="15">
-        <v>3641.110525</v>
-      </c>
+      <c r="B90" s="16"/>
       <c r="C90" s="15">
-        <v>3839.856993</v>
+        <v>1434.913543</v>
       </c>
       <c r="D90" s="15">
-        <v>3844.554559</v>
+        <v>1401.148691</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B91" s="14"/>
+      <c r="B91" s="15">
+        <v>2751.558893</v>
+      </c>
       <c r="C91" s="15">
-        <v>1434.913543</v>
+        <v>2977.666808</v>
       </c>
       <c r="D91" s="15">
-        <v>1401.148691</v>
+        <v>3028.134185</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B92" s="15">
-        <v>2751.558893</v>
-      </c>
+      <c r="B92" s="16"/>
       <c r="C92" s="15">
-        <v>2977.666808</v>
+        <v>1032.146186</v>
       </c>
       <c r="D92" s="15">
-        <v>3028.134185</v>
+        <v>968.7662745</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B93" s="14"/>
+      <c r="B93" s="16"/>
       <c r="C93" s="15">
-        <v>1032.146186</v>
+        <v>343.6127717</v>
       </c>
       <c r="D93" s="15">
-        <v>968.7662745</v>
+        <v>335.5048716</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B94" s="14"/>
+      <c r="B94" s="16"/>
       <c r="C94" s="15">
-        <v>343.6127717</v>
+        <v>5795.712484</v>
       </c>
       <c r="D94" s="15">
-        <v>335.5048716</v>
+        <v>5473.313802</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B95" s="14"/>
+      <c r="B95" s="15">
+        <v>2061.395028</v>
+      </c>
       <c r="C95" s="15">
-        <v>5795.712484</v>
+        <v>2134.104396</v>
       </c>
       <c r="D95" s="15">
-        <v>5473.313802</v>
+        <v>2404.963653</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B96" s="15">
-        <v>2061.395028</v>
-      </c>
+      <c r="B96" s="16"/>
       <c r="C96" s="15">
-        <v>2134.104396</v>
+        <v>767.647435</v>
       </c>
       <c r="D96" s="15">
-        <v>2404.963653</v>
+        <v>720.4441816</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B97" s="14"/>
+      <c r="B97" s="15">
+        <v>4606.024716</v>
+      </c>
       <c r="C97" s="15">
-        <v>767.647435</v>
+        <v>4765.382654</v>
       </c>
       <c r="D97" s="15">
-        <v>720.4441816</v>
+        <v>4761.484699</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B98" s="15">
-        <v>4606.024716</v>
+      <c r="B98" s="14">
+        <v>1938.360765</v>
       </c>
       <c r="C98" s="15">
-        <v>4765.382654</v>
+        <v>1938.360765</v>
       </c>
       <c r="D98" s="15">
-        <v>4761.484699</v>
+        <v>1993.610544</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B99" s="14"/>
+      <c r="B99" s="14">
+        <v>662.4355862</v>
+      </c>
       <c r="C99" s="15">
-        <v>1938.360765</v>
+        <v>662.4355862</v>
       </c>
       <c r="D99" s="15">
-        <v>1993.610544</v>
+        <v>662.4167817</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B100" s="14"/>
+      <c r="B100" s="14">
+        <v>422.7029601</v>
+      </c>
       <c r="C100" s="15">
-        <v>662.4355862</v>
+        <v>422.7029601</v>
       </c>
       <c r="D100" s="15">
-        <v>662.4167817</v>
+        <v>416.4791325</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B101" s="14"/>
+      <c r="B101" s="14">
+        <v>1813.931187</v>
+      </c>
       <c r="C101" s="15">
-        <v>422.7029601</v>
+        <v>1813.931187</v>
       </c>
       <c r="D101" s="15">
-        <v>416.4791325</v>
+        <v>1855.434654</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B102" s="14"/>
+      <c r="B102" s="14">
+        <v>393.1591509</v>
+      </c>
       <c r="C102" s="15">
-        <v>1813.931187</v>
+        <v>393.1591509</v>
       </c>
       <c r="D102" s="15">
-        <v>1855.434654</v>
+        <v>395.8973753</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B103" s="14"/>
+      <c r="B103" s="15">
+        <v>2292.334096</v>
+      </c>
       <c r="C103" s="15">
-        <v>393.1591509</v>
+        <v>2280.385122</v>
       </c>
       <c r="D103" s="15">
-        <v>395.8973753</v>
+        <v>2372.873994</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B104" s="15">
-        <v>2292.334096</v>
-      </c>
+      <c r="B104" s="16"/>
       <c r="C104" s="15">
-        <v>2280.385122</v>
+        <v>1578.60368</v>
       </c>
       <c r="D104" s="15">
-        <v>2372.873994</v>
+        <v>1532.90727</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B105" s="14"/>
+      <c r="B105" s="16"/>
       <c r="C105" s="15">
-        <v>1578.60368</v>
+        <v>1329.186331</v>
       </c>
       <c r="D105" s="15">
-        <v>1532.90727</v>
+        <v>1297.246098</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B106" s="14"/>
+      <c r="B106" s="16"/>
       <c r="C106" s="15">
-        <v>1329.186331</v>
+        <v>492.2248522</v>
       </c>
       <c r="D106" s="15">
-        <v>1297.246098</v>
+        <v>497.238142</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B107" s="14"/>
+      <c r="B107" s="16"/>
       <c r="C107" s="15">
-        <v>492.2248522</v>
+        <v>669.2871355</v>
       </c>
       <c r="D107" s="15">
-        <v>497.238142</v>
+        <v>692.9416729</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B108" s="14"/>
+      <c r="B108" s="16"/>
       <c r="C108" s="15">
-        <v>669.2871355</v>
+        <v>850.2489188</v>
       </c>
       <c r="D108" s="15">
-        <v>692.9416729</v>
+        <v>854.0720517</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B109" s="14"/>
+      <c r="B109" s="16"/>
       <c r="C109" s="15">
-        <v>850.2489188</v>
+        <v>365.7032353</v>
       </c>
       <c r="D109" s="15">
-        <v>854.0720517</v>
+        <v>357.1608789</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B110" s="14"/>
+      <c r="B110" s="15">
+        <v>2766.647283</v>
+      </c>
       <c r="C110" s="15">
-        <v>365.7032353</v>
+        <v>2840.196821</v>
       </c>
       <c r="D110" s="15">
-        <v>357.1608789</v>
+        <v>2871.11374</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="B111" s="15">
-        <v>2766.647283</v>
-      </c>
+      <c r="B111" s="16"/>
       <c r="C111" s="15">
-        <v>2840.196821</v>
+        <v>1466.608239</v>
       </c>
       <c r="D111" s="15">
-        <v>2871.11374</v>
+        <v>1364.233439</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="B112" s="14"/>
+      <c r="B112" s="15">
+        <v>17583.60467</v>
+      </c>
       <c r="C112" s="15">
-        <v>1466.608239</v>
+        <v>18177.25257</v>
       </c>
       <c r="D112" s="15">
-        <v>1364.233439</v>
+        <v>17630.07147</v>
       </c>
     </row>
     <row r="113">
@@ -2095,13 +2186,13 @@
         <v>133</v>
       </c>
       <c r="B113" s="15">
-        <v>17583.60467</v>
+        <v>2849.524691</v>
       </c>
       <c r="C113" s="15">
-        <v>18177.25257</v>
+        <v>2970.78789</v>
       </c>
       <c r="D113" s="15">
-        <v>17630.07147</v>
+        <v>3067.742494</v>
       </c>
     </row>
     <row r="114">
@@ -2109,529 +2200,577 @@
         <v>134</v>
       </c>
       <c r="B114" s="15">
-        <v>2849.524691</v>
+        <v>2405.482591</v>
       </c>
       <c r="C114" s="15">
-        <v>2970.78789</v>
+        <v>2579.476677</v>
       </c>
       <c r="D114" s="15">
-        <v>3067.742494</v>
+        <v>2709.301742</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B115" s="15">
-        <v>2405.482591</v>
-      </c>
+      <c r="B115" s="16"/>
       <c r="C115" s="15">
-        <v>2579.476677</v>
+        <v>1083.624191</v>
       </c>
       <c r="D115" s="15">
-        <v>2709.301742</v>
+        <v>1037.944017</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B116" s="14"/>
+      <c r="B116" s="16"/>
       <c r="C116" s="15">
-        <v>1083.624191</v>
+        <v>1071.044066</v>
       </c>
       <c r="D116" s="15">
-        <v>1037.944017</v>
+        <v>1122.295088</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="B117" s="14"/>
+      <c r="B117" s="15">
+        <v>3470.182441</v>
+      </c>
       <c r="C117" s="15">
-        <v>1071.044066</v>
+        <v>3570.436812</v>
       </c>
       <c r="D117" s="15">
-        <v>1122.295088</v>
+        <v>3543.274217</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B118" s="15">
-        <v>3470.182441</v>
+      <c r="B118" s="14">
+        <v>4786.670306</v>
       </c>
       <c r="C118" s="15">
-        <v>3570.436812</v>
+        <v>4786.670306</v>
       </c>
       <c r="D118" s="15">
-        <v>3543.274217</v>
+        <v>4399.11836</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B119" s="14"/>
+      <c r="B119" s="14">
+        <v>491.7453486</v>
+      </c>
       <c r="C119" s="15">
-        <v>4786.670306</v>
+        <v>491.7453486</v>
       </c>
       <c r="D119" s="15">
-        <v>4399.11836</v>
+        <v>477.5640765</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B120" s="14"/>
+      <c r="B120" s="14">
+        <v>690.4012518</v>
+      </c>
       <c r="C120" s="15">
-        <v>491.7453486</v>
+        <v>690.4012518</v>
       </c>
       <c r="D120" s="15">
-        <v>477.5640765</v>
+        <v>737.2264232</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="B121" s="14"/>
+      <c r="B121" s="14">
+        <v>396.1737338</v>
+      </c>
       <c r="C121" s="15">
-        <v>690.4012518</v>
+        <v>396.1737338</v>
       </c>
       <c r="D121" s="15">
-        <v>737.2264232</v>
+        <v>389.7137691</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B122" s="14"/>
+      <c r="B122" s="15">
+        <v>5261.992916</v>
+      </c>
       <c r="C122" s="15">
-        <v>396.1737338</v>
+        <v>5253.471543</v>
       </c>
       <c r="D122" s="15">
-        <v>389.7137691</v>
+        <v>5269.030545</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B123" s="15">
-        <v>5261.992916</v>
+      <c r="B123" s="14">
+        <v>1296.695977</v>
       </c>
       <c r="C123" s="15">
-        <v>5253.471543</v>
+        <v>1296.695977</v>
       </c>
       <c r="D123" s="15">
-        <v>5269.030545</v>
+        <v>1311.783736</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="B124" s="14"/>
+      <c r="B124" s="14">
+        <v>9757.448683</v>
+      </c>
       <c r="C124" s="15">
-        <v>1296.695977</v>
+        <v>9757.448683</v>
       </c>
       <c r="D124" s="15">
-        <v>1311.783736</v>
+        <v>10121.43798</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B125" s="14"/>
+      <c r="B125" s="14">
+        <v>1315.324867</v>
+      </c>
       <c r="C125" s="15">
-        <v>9757.448683</v>
+        <v>1315.324867</v>
       </c>
       <c r="D125" s="15">
-        <v>10121.43798</v>
+        <v>1306.733423</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="B126" s="14"/>
+      <c r="B126" s="14">
+        <v>1337.171056</v>
+      </c>
       <c r="C126" s="15">
-        <v>1315.324867</v>
+        <v>1337.171056</v>
       </c>
       <c r="D126" s="15">
-        <v>1306.733423</v>
+        <v>1456.572636</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B127" s="14"/>
+      <c r="B127" s="14">
+        <v>2711.300391</v>
+      </c>
       <c r="C127" s="15">
-        <v>1337.171056</v>
+        <v>2711.300391</v>
       </c>
       <c r="D127" s="15">
-        <v>1456.572636</v>
+        <v>2728.506512</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="B128" s="14"/>
+      <c r="B128" s="14">
+        <v>1372.668166</v>
+      </c>
       <c r="C128" s="15">
-        <v>2711.300391</v>
+        <v>1372.668166</v>
       </c>
       <c r="D128" s="15">
-        <v>2728.506512</v>
+        <v>1362.904585</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B129" s="14"/>
+      <c r="B129" s="14">
+        <v>350.8405328</v>
+      </c>
       <c r="C129" s="15">
-        <v>1372.668166</v>
+        <v>350.8405328</v>
       </c>
       <c r="D129" s="15">
-        <v>1362.904585</v>
+        <v>343.590678</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="B130" s="14"/>
+      <c r="B130" s="14">
+        <v>487.5205306</v>
+      </c>
       <c r="C130" s="15">
-        <v>350.8405328</v>
+        <v>487.5205306</v>
       </c>
       <c r="D130" s="15">
-        <v>343.590678</v>
+        <v>551.047689</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="B131" s="14"/>
+      <c r="B131" s="14">
+        <v>638.8548468</v>
+      </c>
       <c r="C131" s="15">
-        <v>487.5205306</v>
+        <v>638.8548468</v>
       </c>
       <c r="D131" s="15">
-        <v>551.047689</v>
+        <v>641.0253457</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="B132" s="14"/>
+      <c r="B132" s="14">
+        <v>1311.044052</v>
+      </c>
       <c r="C132" s="15">
-        <v>638.8548468</v>
+        <v>1311.044052</v>
       </c>
       <c r="D132" s="15">
-        <v>641.0253457</v>
+        <v>1278.786822</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="B133" s="14"/>
+      <c r="B133" s="14">
+        <v>2247.834202</v>
+      </c>
       <c r="C133" s="15">
-        <v>1311.044052</v>
+        <v>2247.834202</v>
       </c>
       <c r="D133" s="15">
-        <v>1278.786822</v>
+        <v>2150.43728</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="B134" s="14"/>
+      <c r="B134" s="14">
+        <v>2356.645002</v>
+      </c>
       <c r="C134" s="15">
-        <v>2247.834202</v>
+        <v>2356.645002</v>
       </c>
       <c r="D134" s="15">
-        <v>2150.43728</v>
+        <v>2468.998816</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="B135" s="14"/>
+      <c r="B135" s="15">
+        <v>6812.19588</v>
+      </c>
       <c r="C135" s="15">
-        <v>2356.645002</v>
+        <v>7310.309923</v>
       </c>
       <c r="D135" s="15">
-        <v>2468.998816</v>
+        <v>7721.964192</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="B136" s="15">
-        <v>6812.19588</v>
+      <c r="B136" s="14">
+        <v>2159.237561</v>
       </c>
       <c r="C136" s="15">
-        <v>7310.309923</v>
+        <v>2159.237561</v>
       </c>
       <c r="D136" s="15">
-        <v>7721.964192</v>
+        <v>2170.585832</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="B137" s="14"/>
+      <c r="B137" s="14">
+        <v>564.389568</v>
+      </c>
       <c r="C137" s="15">
-        <v>2159.237561</v>
+        <v>564.389568</v>
       </c>
       <c r="D137" s="15">
-        <v>2170.585832</v>
+        <v>571.4871883</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="B138" s="14"/>
+      <c r="B138" s="14">
+        <v>862.6581606</v>
+      </c>
       <c r="C138" s="15">
-        <v>564.389568</v>
+        <v>862.6581606</v>
       </c>
       <c r="D138" s="15">
-        <v>571.4871883</v>
+        <v>959.5383534</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="B139" s="14"/>
+      <c r="B139" s="14">
+        <v>2193.46817</v>
+      </c>
       <c r="C139" s="15">
-        <v>862.6581606</v>
+        <v>2193.46817</v>
       </c>
       <c r="D139" s="15">
-        <v>959.5383534</v>
+        <v>2203.777446</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="B140" s="14"/>
+      <c r="B140" s="15">
+        <v>1510.119193</v>
+      </c>
       <c r="C140" s="15">
-        <v>2193.46817</v>
+        <v>1545.775453</v>
       </c>
       <c r="D140" s="15">
-        <v>2203.777446</v>
+        <v>1545.498334</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="B141" s="15">
-        <v>1510.119193</v>
+      <c r="B141" s="14">
+        <v>1376.306794</v>
       </c>
       <c r="C141" s="15">
-        <v>1545.775453</v>
+        <v>1376.306794</v>
       </c>
       <c r="D141" s="15">
-        <v>1545.498334</v>
+        <v>1341.155361</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="B142" s="14"/>
+      <c r="B142" s="14">
+        <v>1349.475017</v>
+      </c>
       <c r="C142" s="15">
-        <v>1376.306794</v>
+        <v>1349.475017</v>
       </c>
       <c r="D142" s="15">
-        <v>1341.155361</v>
+        <v>1431.804936</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="B143" s="14"/>
+      <c r="B143" s="14">
+        <v>1734.596362</v>
+      </c>
       <c r="C143" s="15">
-        <v>1349.475017</v>
+        <v>1734.596362</v>
       </c>
       <c r="D143" s="15">
-        <v>1431.804936</v>
+        <v>2081.121932</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="B144" s="14"/>
+      <c r="B144" s="14">
+        <v>312.7560486</v>
+      </c>
       <c r="C144" s="15">
-        <v>1734.596362</v>
+        <v>312.7560486</v>
       </c>
       <c r="D144" s="15">
-        <v>2081.121932</v>
+        <v>297.0941161</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="B145" s="14"/>
+      <c r="B145" s="16"/>
       <c r="C145" s="15">
-        <v>312.7560486</v>
+        <v>1408.009036</v>
       </c>
       <c r="D145" s="15">
-        <v>297.0941161</v>
+        <v>1389.063706</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="B146" s="14"/>
+      <c r="B146" s="16"/>
       <c r="C146" s="15">
-        <v>1408.009036</v>
+        <v>1651.299808</v>
       </c>
       <c r="D146" s="15">
-        <v>1389.063706</v>
+        <v>1711.797113</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="B147" s="14"/>
+      <c r="B147" s="16"/>
       <c r="C147" s="15">
-        <v>1651.299808</v>
+        <v>1826.456872</v>
       </c>
       <c r="D147" s="15">
-        <v>1711.797113</v>
+        <v>1679.675424</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="B148" s="14"/>
+      <c r="B148" s="16"/>
       <c r="C148" s="15">
-        <v>1826.456872</v>
+        <v>407.3724137</v>
       </c>
       <c r="D148" s="15">
-        <v>1679.675424</v>
+        <v>405.6089148</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="B149" s="14"/>
+      <c r="B149" s="16"/>
       <c r="C149" s="15">
-        <v>407.3724137</v>
+        <v>1094.72587</v>
       </c>
       <c r="D149" s="15">
-        <v>405.6089148</v>
+        <v>1067.780253</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="B150" s="14"/>
+      <c r="B150" s="16"/>
       <c r="C150" s="15">
-        <v>1094.72587</v>
+        <v>3019.819231</v>
       </c>
       <c r="D150" s="15">
-        <v>1067.780253</v>
+        <v>2724.224432</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B151" s="14"/>
+      <c r="B151" s="15">
+        <v>6950.49909</v>
+      </c>
       <c r="C151" s="15">
-        <v>3019.819231</v>
+        <v>6944.480723</v>
       </c>
       <c r="D151" s="15">
-        <v>2724.224432</v>
+        <v>6856.992914</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="B152" s="15">
-        <v>6950.49909</v>
-      </c>
+      <c r="B152" s="16"/>
       <c r="C152" s="15">
-        <v>6944.480723</v>
+        <v>742.3471997</v>
       </c>
       <c r="D152" s="15">
-        <v>6856.992914</v>
+        <v>723.8874258</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="B153" s="14"/>
+      <c r="B153" s="16"/>
       <c r="C153" s="15">
-        <v>742.3471997</v>
+        <v>152.4718061</v>
       </c>
       <c r="D153" s="15">
-        <v>723.8874258</v>
+        <v>129.0644214</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="B154" s="14"/>
+      <c r="B154" s="16"/>
       <c r="C154" s="15">
-        <v>152.4718061</v>
+        <v>773.021169</v>
       </c>
       <c r="D154" s="15">
-        <v>129.0644214</v>
+        <v>796.6325009</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="B155" s="14"/>
+      <c r="B155" s="16"/>
       <c r="C155" s="15">
-        <v>773.021169</v>
+        <v>593.668207</v>
       </c>
       <c r="D155" s="15">
-        <v>796.6325009</v>
+        <v>559.7258753</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="B156" s="14"/>
+      <c r="B156" s="15">
+        <v>4289.404073</v>
+      </c>
       <c r="C156" s="15">
-        <v>593.668207</v>
+        <v>4605.420463</v>
       </c>
       <c r="D156" s="15">
-        <v>559.7258753</v>
+        <v>4689.842388</v>
       </c>
     </row>
     <row r="157">
@@ -2639,39 +2778,39 @@
         <v>177</v>
       </c>
       <c r="B157" s="15">
-        <v>4289.404073</v>
+        <v>5853.962017</v>
       </c>
       <c r="C157" s="15">
-        <v>4605.420463</v>
+        <v>6438.755199</v>
       </c>
       <c r="D157" s="15">
-        <v>4689.842388</v>
+        <v>5909.609764</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="B158" s="15">
-        <v>5853.962017</v>
-      </c>
+      <c r="B158" s="16"/>
       <c r="C158" s="15">
-        <v>6438.755199</v>
+        <v>369.6791458</v>
       </c>
       <c r="D158" s="15">
-        <v>5909.609764</v>
+        <v>367.2652676</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="B159" s="14"/>
+      <c r="B159" s="15">
+        <v>4454.741779</v>
+      </c>
       <c r="C159" s="15">
-        <v>369.6791458</v>
+        <v>4391.560073</v>
       </c>
       <c r="D159" s="15">
-        <v>367.2652676</v>
+        <v>4375.379188</v>
       </c>
     </row>
     <row r="160">
@@ -2679,321 +2818,357 @@
         <v>180</v>
       </c>
       <c r="B160" s="15">
-        <v>4454.741779</v>
+        <v>4114.398381</v>
       </c>
       <c r="C160" s="15">
-        <v>4391.560073</v>
+        <v>4183.534387</v>
       </c>
       <c r="D160" s="15">
-        <v>4375.379188</v>
+        <v>4177.590934</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="B161" s="15">
-        <v>4114.398381</v>
+      <c r="B161" s="14">
+        <v>6232.464156</v>
       </c>
       <c r="C161" s="15">
-        <v>4183.534387</v>
+        <v>6232.464156</v>
       </c>
       <c r="D161" s="15">
-        <v>4177.590934</v>
+        <v>6677.557661</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="B162" s="14"/>
+      <c r="B162" s="14">
+        <v>474.8608064</v>
+      </c>
       <c r="C162" s="15">
-        <v>6232.464156</v>
+        <v>474.8608064</v>
       </c>
       <c r="D162" s="15">
-        <v>6677.557661</v>
+        <v>483.4379745</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="B163" s="14"/>
+      <c r="B163" s="14">
+        <v>1057.48009</v>
+      </c>
       <c r="C163" s="15">
-        <v>474.8608064</v>
+        <v>1057.48009</v>
       </c>
       <c r="D163" s="15">
-        <v>483.4379745</v>
+        <v>1108.986925</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="B164" s="14"/>
+      <c r="B164" s="14">
+        <v>708.3306547</v>
+      </c>
       <c r="C164" s="15">
-        <v>1057.48009</v>
+        <v>708.3306547</v>
       </c>
       <c r="D164" s="15">
-        <v>1108.986925</v>
+        <v>715.61398</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="B165" s="14"/>
+      <c r="B165" s="14">
+        <v>457.1319652</v>
+      </c>
       <c r="C165" s="15">
-        <v>708.3306547</v>
+        <v>457.1319652</v>
       </c>
       <c r="D165" s="15">
-        <v>715.61398</v>
+        <v>448.3908226</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="B166" s="14"/>
+      <c r="B166" s="15">
+        <v>2495.843402</v>
+      </c>
       <c r="C166" s="15">
-        <v>457.1319652</v>
+        <v>2565.408312</v>
       </c>
       <c r="D166" s="15">
-        <v>448.3908226</v>
+        <v>2566.574313</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="B167" s="15">
-        <v>2495.843402</v>
-      </c>
+      <c r="B167" s="16"/>
       <c r="C167" s="15">
-        <v>2565.408312</v>
+        <v>571.7637732</v>
       </c>
       <c r="D167" s="15">
-        <v>2566.574313</v>
+        <v>571.540398</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="B168" s="14"/>
+      <c r="B168" s="16"/>
       <c r="C168" s="15">
-        <v>571.7637732</v>
+        <v>580.5610646</v>
       </c>
       <c r="D168" s="15">
-        <v>571.540398</v>
+        <v>575.7355234</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="B169" s="14"/>
+      <c r="B169" s="15">
+        <v>2028.081267</v>
+      </c>
       <c r="C169" s="15">
-        <v>580.5610646</v>
+        <v>2082.81023</v>
       </c>
       <c r="D169" s="15">
-        <v>575.7355234</v>
+        <v>2059.889048</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="B170" s="15">
-        <v>2028.081267</v>
-      </c>
+      <c r="B170" s="16"/>
       <c r="C170" s="15">
-        <v>2082.81023</v>
+        <v>764.1374775</v>
       </c>
       <c r="D170" s="15">
-        <v>2059.889048</v>
+        <v>783.3353346</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="B171" s="14"/>
+      <c r="B171" s="15">
+        <v>4758.277759</v>
+      </c>
       <c r="C171" s="15">
-        <v>764.1374775</v>
+        <v>4616.434822</v>
       </c>
       <c r="D171" s="15">
-        <v>783.3353346</v>
+        <v>4613.578098</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="B172" s="15">
-        <v>4758.277759</v>
+      <c r="B172" s="14">
+        <v>19120.34428</v>
       </c>
       <c r="C172" s="15">
-        <v>4616.434822</v>
+        <v>19120.34428</v>
       </c>
       <c r="D172" s="15">
-        <v>4613.578098</v>
+        <v>18899.35772</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="B173" s="14"/>
+      <c r="B173" s="14">
+        <v>1592.131494</v>
+      </c>
       <c r="C173" s="15">
-        <v>19120.34428</v>
+        <v>1592.131494</v>
       </c>
       <c r="D173" s="15">
-        <v>18899.35772</v>
+        <v>1741.722606</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="B174" s="14"/>
+      <c r="B174" s="14">
+        <v>5093.064779</v>
+      </c>
       <c r="C174" s="15">
-        <v>1592.131494</v>
+        <v>5093.064779</v>
       </c>
       <c r="D174" s="15">
-        <v>1741.722606</v>
+        <v>5174.400368</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="B175" s="14"/>
+      <c r="B175" s="14">
+        <v>549.5406558</v>
+      </c>
       <c r="C175" s="15">
-        <v>5093.064779</v>
+        <v>549.5406558</v>
       </c>
       <c r="D175" s="15">
-        <v>5174.400368</v>
+        <v>542.6533304</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="B176" s="14"/>
+      <c r="B176" s="14">
+        <v>6363.393314</v>
+      </c>
       <c r="C176" s="15">
-        <v>549.5406558</v>
+        <v>6363.393314</v>
       </c>
       <c r="D176" s="15">
-        <v>542.6533304</v>
+        <v>6792.393503</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="B177" s="14"/>
+      <c r="B177" s="14">
+        <v>374.7736829</v>
+      </c>
       <c r="C177" s="15">
-        <v>6363.393314</v>
+        <v>374.7736829</v>
       </c>
       <c r="D177" s="15">
-        <v>6792.393503</v>
+        <v>376.9233584</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="B178" s="14"/>
+      <c r="B178" s="14">
+        <v>261.0041698</v>
+      </c>
       <c r="C178" s="15">
-        <v>374.7736829</v>
+        <v>261.0041698</v>
       </c>
       <c r="D178" s="15">
-        <v>376.9233584</v>
+        <v>292.0835599</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="B179" s="14"/>
+      <c r="B179" s="14">
+        <v>4833.445079</v>
+      </c>
       <c r="C179" s="15">
-        <v>261.0041698</v>
+        <v>4833.445079</v>
       </c>
       <c r="D179" s="15">
-        <v>292.0835599</v>
+        <v>4905.960485</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="B180" s="14"/>
+      <c r="B180" s="14">
+        <v>693.4434919</v>
+      </c>
       <c r="C180" s="15">
-        <v>4833.445079</v>
+        <v>693.4434919</v>
       </c>
       <c r="D180" s="15">
-        <v>4905.960485</v>
+        <v>720.3659675</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="B181" s="14"/>
+      <c r="B181" s="14">
+        <v>2078.490179</v>
+      </c>
       <c r="C181" s="15">
-        <v>693.4434919</v>
+        <v>2078.490179</v>
       </c>
       <c r="D181" s="15">
-        <v>720.3659675</v>
+        <v>2018.773101</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="B182" s="14"/>
+      <c r="B182" s="14">
+        <v>670.7907052</v>
+      </c>
       <c r="C182" s="15">
-        <v>2078.490179</v>
+        <v>670.7907052</v>
       </c>
       <c r="D182" s="15">
-        <v>2018.773101</v>
+        <v>676.0274025</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="B183" s="14"/>
+      <c r="B183" s="14">
+        <v>59.12006572</v>
+      </c>
       <c r="C183" s="15">
-        <v>670.7907052</v>
+        <v>59.12006572</v>
       </c>
       <c r="D183" s="15">
-        <v>676.0274025</v>
+        <v>58.64266536</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="B184" s="14"/>
+      <c r="B184" s="14">
+        <v>670.7907052</v>
+      </c>
       <c r="C184" s="15">
-        <v>59.12006572</v>
+        <v>670.7907052</v>
       </c>
       <c r="D184" s="15">
-        <v>58.64266536</v>
+        <v>676.0274025</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="B185" s="14"/>
+      <c r="B185" s="15">
+        <v>2846.855923</v>
+      </c>
       <c r="C185" s="15">
-        <v>670.7907052</v>
+        <v>3178.327899</v>
       </c>
       <c r="D185" s="15">
-        <v>676.0274025</v>
+        <v>3080.725034</v>
       </c>
     </row>
     <row r="186">
@@ -3001,13 +3176,13 @@
         <v>206</v>
       </c>
       <c r="B186" s="15">
-        <v>2846.855923</v>
+        <v>3272.024947</v>
       </c>
       <c r="C186" s="15">
-        <v>3178.327899</v>
+        <v>3323.248637</v>
       </c>
       <c r="D186" s="15">
-        <v>3080.725034</v>
+        <v>3409.074845</v>
       </c>
     </row>
     <row r="187">
@@ -3015,366 +3190,352 @@
         <v>207</v>
       </c>
       <c r="B187" s="15">
-        <v>3272.024947</v>
+        <v>4810.954599</v>
       </c>
       <c r="C187" s="15">
-        <v>3323.248637</v>
+        <v>5131.537099</v>
       </c>
       <c r="D187" s="15">
-        <v>3409.074845</v>
+        <v>5269.485998</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="B188" s="15">
-        <v>4810.954599</v>
-      </c>
+      <c r="B188" s="16"/>
       <c r="C188" s="15">
-        <v>5131.537099</v>
+        <v>668.1349651</v>
       </c>
       <c r="D188" s="15">
-        <v>5269.485998</v>
+        <v>749.3062631</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="B189" s="14"/>
+      <c r="B189" s="16"/>
       <c r="C189" s="15">
-        <v>668.1349651</v>
+        <v>1828.518571</v>
       </c>
       <c r="D189" s="15">
-        <v>749.3062631</v>
+        <v>1720.290415</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="B190" s="14"/>
+      <c r="B190" s="16"/>
       <c r="C190" s="15">
-        <v>1828.518571</v>
+        <v>3020.938241</v>
       </c>
       <c r="D190" s="15">
-        <v>1720.290415</v>
+        <v>3087.269917</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="B191" s="14"/>
+      <c r="B191" s="16"/>
       <c r="C191" s="15">
-        <v>3020.938241</v>
+        <v>462.5728075</v>
       </c>
       <c r="D191" s="15">
-        <v>3087.269917</v>
+        <v>462.969461</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="B192" s="14"/>
+      <c r="B192" s="16"/>
       <c r="C192" s="15">
-        <v>462.5728075</v>
+        <v>1987.575903</v>
       </c>
       <c r="D192" s="15">
-        <v>462.969461</v>
+        <v>1878.925894</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="B193" s="14"/>
+      <c r="B193" s="16"/>
       <c r="C193" s="15">
-        <v>1987.575903</v>
+        <v>302.7309035</v>
       </c>
       <c r="D193" s="15">
-        <v>1878.925894</v>
+        <v>285.7859401</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="B194" s="14"/>
+      <c r="B194" s="16"/>
       <c r="C194" s="15">
-        <v>302.7309035</v>
+        <v>5011.619271</v>
       </c>
       <c r="D194" s="15">
-        <v>285.7859401</v>
+        <v>4944.322388</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="B195" s="14"/>
+      <c r="B195" s="16"/>
       <c r="C195" s="15">
-        <v>5011.619271</v>
+        <v>1376.460341</v>
       </c>
       <c r="D195" s="15">
-        <v>4944.322388</v>
+        <v>1367.589027</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="B196" s="14"/>
+      <c r="B196" s="16"/>
       <c r="C196" s="15">
-        <v>1376.460341</v>
+        <v>1408.009036</v>
       </c>
       <c r="D196" s="15">
-        <v>1367.589027</v>
+        <v>1389.063706</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="B197" s="14"/>
+      <c r="B197" s="16"/>
       <c r="C197" s="15">
-        <v>1408.009036</v>
+        <v>549.5406558</v>
       </c>
       <c r="D197" s="15">
-        <v>1389.063706</v>
+        <v>542.6533304</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="B198" s="14"/>
+      <c r="B198" s="16"/>
       <c r="C198" s="15">
-        <v>549.5406558</v>
+        <v>670.7907052</v>
       </c>
       <c r="D198" s="15">
-        <v>542.6533304</v>
+        <v>676.0274025</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="B199" s="14"/>
+      <c r="B199" s="16"/>
       <c r="C199" s="15">
-        <v>670.7907052</v>
+        <v>14537.57046</v>
       </c>
       <c r="D199" s="15">
-        <v>676.0274025</v>
+        <v>14346.93671</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="B200" s="14"/>
+      <c r="B200" s="16"/>
       <c r="C200" s="15">
-        <v>14537.57046</v>
+        <v>956.4771965</v>
       </c>
       <c r="D200" s="15">
-        <v>14346.93671</v>
+        <v>950.5108791</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="B201" s="14"/>
+      <c r="B201" s="15">
+        <v>1540.491107</v>
+      </c>
       <c r="C201" s="15">
-        <v>956.4771965</v>
+        <v>1528.20253</v>
       </c>
       <c r="D201" s="15">
-        <v>950.5108791</v>
+        <v>1561.835094</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B202" s="15">
-        <v>1540.491107</v>
-      </c>
+      <c r="B202" s="16"/>
       <c r="C202" s="15">
-        <v>1528.20253</v>
+        <v>469.7336214</v>
       </c>
       <c r="D202" s="15">
-        <v>1561.835094</v>
+        <v>462.4495451</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="B203" s="14"/>
+      <c r="B203" s="16"/>
       <c r="C203" s="15">
-        <v>469.7336214</v>
+        <v>2553.167449</v>
       </c>
       <c r="D203" s="15">
-        <v>462.4495451</v>
+        <v>2686.53096</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="B204" s="14"/>
+      <c r="B204" s="16"/>
       <c r="C204" s="15">
-        <v>2553.167449</v>
+        <v>2190.297649</v>
       </c>
       <c r="D204" s="15">
-        <v>2686.53096</v>
+        <v>2108.848637</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="B205" s="14"/>
+      <c r="B205" s="16"/>
       <c r="C205" s="15">
-        <v>2190.297649</v>
+        <v>1350.511991</v>
       </c>
       <c r="D205" s="15">
-        <v>2108.848637</v>
+        <v>1365.352147</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="B206" s="14"/>
+      <c r="B206" s="15">
+        <v>6917.426328</v>
+      </c>
       <c r="C206" s="15">
-        <v>1350.511991</v>
+        <v>6915.844739</v>
       </c>
       <c r="D206" s="15">
-        <v>1365.352147</v>
+        <v>6812.489605</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="B207" s="15">
-        <v>6917.426328</v>
-      </c>
+      <c r="B207" s="16"/>
       <c r="C207" s="15">
-        <v>6915.844739</v>
+        <v>1419.477767</v>
       </c>
       <c r="D207" s="15">
-        <v>6812.489605</v>
+        <v>1625.988144</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="B208" s="14"/>
+      <c r="B208" s="16"/>
       <c r="C208" s="15">
-        <v>1419.477767</v>
+        <v>2271.187535</v>
       </c>
       <c r="D208" s="15">
-        <v>1625.988144</v>
+        <v>2447.284134</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="B209" s="14"/>
+      <c r="B209" s="16"/>
       <c r="C209" s="15">
-        <v>2271.187535</v>
+        <v>667.6464664</v>
       </c>
       <c r="D209" s="15">
-        <v>2447.284134</v>
+        <v>674.7836485</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="B210" s="14"/>
+      <c r="B210" s="16"/>
       <c r="C210" s="15">
-        <v>667.6464664</v>
+        <v>1894.279678</v>
       </c>
       <c r="D210" s="15">
-        <v>674.7836485</v>
+        <v>1869.407403</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="B211" s="14"/>
+      <c r="B211" s="16"/>
       <c r="C211" s="15">
-        <v>1894.279678</v>
+        <v>323.7186681</v>
       </c>
       <c r="D211" s="15">
-        <v>1869.407403</v>
+        <v>240.4138571</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="B212" s="14"/>
+      <c r="B212" s="16"/>
       <c r="C212" s="15">
-        <v>323.7186681</v>
+        <v>2655.850165</v>
       </c>
       <c r="D212" s="15">
-        <v>240.4138571</v>
+        <v>2680.541534</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="B213" s="14"/>
+      <c r="B213" s="16"/>
       <c r="C213" s="15">
-        <v>2655.850165</v>
+        <v>292.2643257</v>
       </c>
       <c r="D213" s="15">
-        <v>2680.541534</v>
+        <v>292.3876772</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="B214" s="14"/>
+      <c r="B214" s="16"/>
       <c r="C214" s="15">
-        <v>292.2643257</v>
+        <v>631.459248</v>
       </c>
       <c r="D214" s="15">
-        <v>292.3876772</v>
+        <v>616.627806</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="B215" s="14"/>
+      <c r="B215" s="16"/>
       <c r="C215" s="15">
-        <v>631.459248</v>
+        <v>757.5378109</v>
       </c>
       <c r="D215" s="15">
-        <v>616.627806</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="B216" s="14"/>
-      <c r="C216" s="15">
-        <v>757.5378109</v>
-      </c>
-      <c r="D216" s="15">
         <v>742.1693288</v>
       </c>
     </row>

--- a/datastatic/datasets/online/D-Energy_Energy_consumption_per_capita_WB_2012.xlsx
+++ b/datastatic/datasets/online/D-Energy_Energy_consumption_per_capita_WB_2012.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="D-Energy_Energy_consumption_per_capita_WB_2012.csv" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="D-Energy_Energy_consumption_per" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="236">
   <si>
     <t>original_title</t>
   </si>
@@ -335,9 +335,6 @@
   </si>
   <si>
     <t>European Union</t>
-  </si>
-  <si>
-    <t>Fragile and conflict affected situations</t>
   </si>
   <si>
     <t>Finland</t>
@@ -731,7 +728,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -751,6 +748,11 @@
       <b/>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -793,7 +795,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -836,11 +838,14 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1154,7 +1159,9 @@
       <c r="A38" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="14"/>
+      <c r="B38" s="14">
+        <v>654.9054806</v>
+      </c>
       <c r="C38" s="15">
         <v>654.9054806</v>
       </c>
@@ -1166,7 +1173,9 @@
       <c r="A39" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="14"/>
+      <c r="B39" s="14">
+        <v>800.5687255</v>
+      </c>
       <c r="C39" s="15">
         <v>800.5687255</v>
       </c>
@@ -1178,7 +1187,9 @@
       <c r="A40" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="14"/>
+      <c r="B40" s="14">
+        <v>1814.063534</v>
+      </c>
       <c r="C40" s="15">
         <v>1814.063534</v>
       </c>
@@ -1190,7 +1201,9 @@
       <c r="A41" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="14"/>
+      <c r="B41" s="14">
+        <v>7691.013739</v>
+      </c>
       <c r="C41" s="15">
         <v>7691.013739</v>
       </c>
@@ -1202,7 +1215,9 @@
       <c r="A42" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="14"/>
+      <c r="B42" s="14">
+        <v>1894.617872</v>
+      </c>
       <c r="C42" s="15">
         <v>1894.617872</v>
       </c>
@@ -1214,7 +1229,9 @@
       <c r="A43" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="14"/>
+      <c r="B43" s="14">
+        <v>969.3097903</v>
+      </c>
       <c r="C43" s="15">
         <v>969.3097903</v>
       </c>
@@ -1254,7 +1271,9 @@
       <c r="A46" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B46" s="14"/>
+      <c r="B46" s="14">
+        <v>1474.003433</v>
+      </c>
       <c r="C46" s="15">
         <v>1474.003433</v>
       </c>
@@ -1280,7 +1299,9 @@
       <c r="A48" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="14"/>
+      <c r="B48" s="14">
+        <v>393.3838147</v>
+      </c>
       <c r="C48" s="15">
         <v>393.3838147</v>
       </c>
@@ -1292,7 +1313,9 @@
       <c r="A49" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B49" s="14"/>
+      <c r="B49" s="14">
+        <v>215.5167195</v>
+      </c>
       <c r="C49" s="15">
         <v>215.5167195</v>
       </c>
@@ -1304,7 +1327,9 @@
       <c r="A50" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B50" s="14"/>
+      <c r="B50" s="14">
+        <v>2327.436524</v>
+      </c>
       <c r="C50" s="15">
         <v>2327.436524</v>
       </c>
@@ -1316,7 +1341,9 @@
       <c r="A51" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B51" s="14"/>
+      <c r="B51" s="14">
+        <v>10171.68102</v>
+      </c>
       <c r="C51" s="15">
         <v>10171.68102</v>
       </c>
@@ -1328,7 +1355,9 @@
       <c r="A52" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B52" s="14"/>
+      <c r="B52" s="14">
+        <v>1687.968693</v>
+      </c>
       <c r="C52" s="15">
         <v>1687.968693</v>
       </c>
@@ -1340,7 +1369,9 @@
       <c r="A53" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="14"/>
+      <c r="B53" s="14">
+        <v>2881.506444</v>
+      </c>
       <c r="C53" s="15">
         <v>2881.506444</v>
       </c>
@@ -1352,7 +1383,9 @@
       <c r="A54" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="14"/>
+      <c r="B54" s="14">
+        <v>785.5170385</v>
+      </c>
       <c r="C54" s="15">
         <v>785.5170385</v>
       </c>
@@ -1364,7 +1397,9 @@
       <c r="A55" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B55" s="14"/>
+      <c r="B55" s="14">
+        <v>1437.795989</v>
+      </c>
       <c r="C55" s="15">
         <v>1437.795989</v>
       </c>
@@ -1376,7 +1411,9 @@
       <c r="A56" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B56" s="14"/>
+      <c r="B56" s="14">
+        <v>7392.868512</v>
+      </c>
       <c r="C56" s="15">
         <v>7392.868512</v>
       </c>
@@ -1388,7 +1425,9 @@
       <c r="A57" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B57" s="14"/>
+      <c r="B57" s="14">
+        <v>1098.358841</v>
+      </c>
       <c r="C57" s="15">
         <v>1098.358841</v>
       </c>
@@ -1414,7 +1453,9 @@
       <c r="A59" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="14"/>
+      <c r="B59" s="14">
+        <v>2506.956958</v>
+      </c>
       <c r="C59" s="15">
         <v>2506.956958</v>
       </c>
@@ -1454,7 +1495,9 @@
       <c r="A62" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B62" s="14"/>
+      <c r="B62" s="14">
+        <v>2226.269871</v>
+      </c>
       <c r="C62" s="15">
         <v>2226.269871</v>
       </c>
@@ -1466,7 +1509,9 @@
       <c r="A63" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B63" s="14"/>
+      <c r="B63" s="14">
+        <v>605.2861164</v>
+      </c>
       <c r="C63" s="15">
         <v>605.2861164</v>
       </c>
@@ -1478,7 +1523,9 @@
       <c r="A64" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B64" s="14"/>
+      <c r="B64" s="14">
+        <v>330.7129396</v>
+      </c>
       <c r="C64" s="15">
         <v>330.7129396</v>
       </c>
@@ -1490,7 +1537,9 @@
       <c r="A65" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B65" s="14"/>
+      <c r="B65" s="14">
+        <v>555.7879761</v>
+      </c>
       <c r="C65" s="15">
         <v>555.7879761</v>
       </c>
@@ -1502,7 +1551,9 @@
       <c r="A66" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B66" s="14"/>
+      <c r="B66" s="14">
+        <v>668.504126</v>
+      </c>
       <c r="C66" s="15">
         <v>668.504126</v>
       </c>
@@ -1514,7 +1565,9 @@
       <c r="A67" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B67" s="14"/>
+      <c r="B67" s="14">
+        <v>1029.003494</v>
+      </c>
       <c r="C67" s="15">
         <v>1029.003494</v>
       </c>
@@ -1526,7 +1579,9 @@
       <c r="A68" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B68" s="14"/>
+      <c r="B68" s="14">
+        <v>1030.88069</v>
+      </c>
       <c r="C68" s="15">
         <v>1030.88069</v>
       </c>
@@ -1538,7 +1593,9 @@
       <c r="A69" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B69" s="14"/>
+      <c r="B69" s="14">
+        <v>11800.97775</v>
+      </c>
       <c r="C69" s="15">
         <v>11800.97775</v>
       </c>
@@ -1550,7 +1607,9 @@
       <c r="A70" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B70" s="14"/>
+      <c r="B70" s="14">
+        <v>1691.102893</v>
+      </c>
       <c r="C70" s="15">
         <v>1691.102893</v>
       </c>
@@ -1604,7 +1663,9 @@
       <c r="A74" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B74" s="14"/>
+      <c r="B74" s="14">
+        <v>731.3131626</v>
+      </c>
       <c r="C74" s="15">
         <v>731.3131626</v>
       </c>
@@ -1616,7 +1677,9 @@
       <c r="A75" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B75" s="14"/>
+      <c r="B75" s="14">
+        <v>1245.992191</v>
+      </c>
       <c r="C75" s="15">
         <v>1245.992191</v>
       </c>
@@ -1628,7 +1691,9 @@
       <c r="A76" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B76" s="14"/>
+      <c r="B76" s="14">
+        <v>1812.896019</v>
+      </c>
       <c r="C76" s="15">
         <v>1812.896019</v>
       </c>
@@ -1640,7 +1705,9 @@
       <c r="A77" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B77" s="14"/>
+      <c r="B77" s="14">
+        <v>884.3105619</v>
+      </c>
       <c r="C77" s="15">
         <v>884.3105619</v>
       </c>
@@ -1652,7 +1719,9 @@
       <c r="A78" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B78" s="14"/>
+      <c r="B78" s="14">
+        <v>2073.454793</v>
+      </c>
       <c r="C78" s="15">
         <v>2073.454793</v>
       </c>
@@ -1664,7 +1733,9 @@
       <c r="A79" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B79" s="14"/>
+      <c r="B79" s="14">
+        <v>3076.213157</v>
+      </c>
       <c r="C79" s="15">
         <v>3076.213157</v>
       </c>
@@ -1676,7 +1747,9 @@
       <c r="A80" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B80" s="14"/>
+      <c r="B80" s="14">
+        <v>3212.078365</v>
+      </c>
       <c r="C80" s="15">
         <v>3212.078365</v>
       </c>
@@ -1688,7 +1761,9 @@
       <c r="A81" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B81" s="14"/>
+      <c r="B81" s="14">
+        <v>979.7547613</v>
+      </c>
       <c r="C81" s="15">
         <v>979.7547613</v>
       </c>
@@ -1700,7 +1775,9 @@
       <c r="A82" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B82" s="14"/>
+      <c r="B82" s="14">
+        <v>884.9922334</v>
+      </c>
       <c r="C82" s="15">
         <v>884.9922334</v>
       </c>
@@ -1754,7 +1831,9 @@
       <c r="A86" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B86" s="14"/>
+      <c r="B86" s="14">
+        <v>506.9752997</v>
+      </c>
       <c r="C86" s="15">
         <v>506.9752997</v>
       </c>
@@ -1780,12 +1859,14 @@
       <c r="A88" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B88" s="14"/>
+      <c r="B88" s="15">
+        <v>6266.859068</v>
+      </c>
       <c r="C88" s="15">
-        <v>560.1145117</v>
+        <v>6074.749787</v>
       </c>
       <c r="D88" s="15">
-        <v>547.1278526</v>
+        <v>6269.755416</v>
       </c>
     </row>
     <row r="89">
@@ -1793,301 +1874,311 @@
         <v>109</v>
       </c>
       <c r="B89" s="15">
-        <v>6266.859068</v>
+        <v>3641.110525</v>
       </c>
       <c r="C89" s="15">
-        <v>6074.749787</v>
+        <v>3839.856993</v>
       </c>
       <c r="D89" s="15">
-        <v>6269.755416</v>
+        <v>3844.554559</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B90" s="15">
-        <v>3641.110525</v>
-      </c>
+      <c r="B90" s="16"/>
       <c r="C90" s="15">
-        <v>3839.856993</v>
+        <v>1434.913543</v>
       </c>
       <c r="D90" s="15">
-        <v>3844.554559</v>
+        <v>1401.148691</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B91" s="14"/>
+      <c r="B91" s="15">
+        <v>2751.558893</v>
+      </c>
       <c r="C91" s="15">
-        <v>1434.913543</v>
+        <v>2977.666808</v>
       </c>
       <c r="D91" s="15">
-        <v>1401.148691</v>
+        <v>3028.134185</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B92" s="15">
-        <v>2751.558893</v>
-      </c>
+      <c r="B92" s="16"/>
       <c r="C92" s="15">
-        <v>2977.666808</v>
+        <v>1032.146186</v>
       </c>
       <c r="D92" s="15">
-        <v>3028.134185</v>
+        <v>968.7662745</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B93" s="14"/>
+      <c r="B93" s="16"/>
       <c r="C93" s="15">
-        <v>1032.146186</v>
+        <v>343.6127717</v>
       </c>
       <c r="D93" s="15">
-        <v>968.7662745</v>
+        <v>335.5048716</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B94" s="14"/>
+      <c r="B94" s="16"/>
       <c r="C94" s="15">
-        <v>343.6127717</v>
+        <v>5795.712484</v>
       </c>
       <c r="D94" s="15">
-        <v>335.5048716</v>
+        <v>5473.313802</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B95" s="14"/>
+      <c r="B95" s="15">
+        <v>2061.395028</v>
+      </c>
       <c r="C95" s="15">
-        <v>5795.712484</v>
+        <v>2134.104396</v>
       </c>
       <c r="D95" s="15">
-        <v>5473.313802</v>
+        <v>2404.963653</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B96" s="15">
-        <v>2061.395028</v>
-      </c>
+      <c r="B96" s="16"/>
       <c r="C96" s="15">
-        <v>2134.104396</v>
+        <v>767.647435</v>
       </c>
       <c r="D96" s="15">
-        <v>2404.963653</v>
+        <v>720.4441816</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B97" s="14"/>
+      <c r="B97" s="15">
+        <v>4606.024716</v>
+      </c>
       <c r="C97" s="15">
-        <v>767.647435</v>
+        <v>4765.382654</v>
       </c>
       <c r="D97" s="15">
-        <v>720.4441816</v>
+        <v>4761.484699</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B98" s="15">
-        <v>4606.024716</v>
+      <c r="B98" s="14">
+        <v>1938.360765</v>
       </c>
       <c r="C98" s="15">
-        <v>4765.382654</v>
+        <v>1938.360765</v>
       </c>
       <c r="D98" s="15">
-        <v>4761.484699</v>
+        <v>1993.610544</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B99" s="14"/>
+      <c r="B99" s="14">
+        <v>662.4355862</v>
+      </c>
       <c r="C99" s="15">
-        <v>1938.360765</v>
+        <v>662.4355862</v>
       </c>
       <c r="D99" s="15">
-        <v>1993.610544</v>
+        <v>662.4167817</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B100" s="14"/>
+      <c r="B100" s="14">
+        <v>422.7029601</v>
+      </c>
       <c r="C100" s="15">
-        <v>662.4355862</v>
+        <v>422.7029601</v>
       </c>
       <c r="D100" s="15">
-        <v>662.4167817</v>
+        <v>416.4791325</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B101" s="14"/>
+      <c r="B101" s="14">
+        <v>1813.931187</v>
+      </c>
       <c r="C101" s="15">
-        <v>422.7029601</v>
+        <v>1813.931187</v>
       </c>
       <c r="D101" s="15">
-        <v>416.4791325</v>
+        <v>1855.434654</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B102" s="14"/>
+      <c r="B102" s="14">
+        <v>393.1591509</v>
+      </c>
       <c r="C102" s="15">
-        <v>1813.931187</v>
+        <v>393.1591509</v>
       </c>
       <c r="D102" s="15">
-        <v>1855.434654</v>
+        <v>395.8973753</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B103" s="14"/>
+      <c r="B103" s="15">
+        <v>2292.334096</v>
+      </c>
       <c r="C103" s="15">
-        <v>393.1591509</v>
+        <v>2280.385122</v>
       </c>
       <c r="D103" s="15">
-        <v>395.8973753</v>
+        <v>2372.873994</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B104" s="15">
-        <v>2292.334096</v>
-      </c>
+      <c r="B104" s="16"/>
       <c r="C104" s="15">
-        <v>2280.385122</v>
+        <v>1578.60368</v>
       </c>
       <c r="D104" s="15">
-        <v>2372.873994</v>
+        <v>1532.90727</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B105" s="14"/>
+      <c r="B105" s="16"/>
       <c r="C105" s="15">
-        <v>1578.60368</v>
+        <v>1329.186331</v>
       </c>
       <c r="D105" s="15">
-        <v>1532.90727</v>
+        <v>1297.246098</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B106" s="14"/>
+      <c r="B106" s="16"/>
       <c r="C106" s="15">
-        <v>1329.186331</v>
+        <v>492.2248522</v>
       </c>
       <c r="D106" s="15">
-        <v>1297.246098</v>
+        <v>497.238142</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B107" s="14"/>
+      <c r="B107" s="16"/>
       <c r="C107" s="15">
-        <v>492.2248522</v>
+        <v>669.2871355</v>
       </c>
       <c r="D107" s="15">
-        <v>497.238142</v>
+        <v>692.9416729</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B108" s="14"/>
+      <c r="B108" s="16"/>
       <c r="C108" s="15">
-        <v>669.2871355</v>
+        <v>850.2489188</v>
       </c>
       <c r="D108" s="15">
-        <v>692.9416729</v>
+        <v>854.0720517</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B109" s="14"/>
+      <c r="B109" s="16"/>
       <c r="C109" s="15">
-        <v>850.2489188</v>
+        <v>365.7032353</v>
       </c>
       <c r="D109" s="15">
-        <v>854.0720517</v>
+        <v>357.1608789</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B110" s="14"/>
+      <c r="B110" s="15">
+        <v>2766.647283</v>
+      </c>
       <c r="C110" s="15">
-        <v>365.7032353</v>
+        <v>2840.196821</v>
       </c>
       <c r="D110" s="15">
-        <v>357.1608789</v>
+        <v>2871.11374</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="B111" s="15">
-        <v>2766.647283</v>
-      </c>
+      <c r="B111" s="16"/>
       <c r="C111" s="15">
-        <v>2840.196821</v>
+        <v>1466.608239</v>
       </c>
       <c r="D111" s="15">
-        <v>2871.11374</v>
+        <v>1364.233439</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="B112" s="14"/>
+      <c r="B112" s="15">
+        <v>17583.60467</v>
+      </c>
       <c r="C112" s="15">
-        <v>1466.608239</v>
+        <v>18177.25257</v>
       </c>
       <c r="D112" s="15">
-        <v>1364.233439</v>
+        <v>17630.07147</v>
       </c>
     </row>
     <row r="113">
@@ -2095,13 +2186,13 @@
         <v>133</v>
       </c>
       <c r="B113" s="15">
-        <v>17583.60467</v>
+        <v>2849.524691</v>
       </c>
       <c r="C113" s="15">
-        <v>18177.25257</v>
+        <v>2970.78789</v>
       </c>
       <c r="D113" s="15">
-        <v>17630.07147</v>
+        <v>3067.742494</v>
       </c>
     </row>
     <row r="114">
@@ -2109,529 +2200,577 @@
         <v>134</v>
       </c>
       <c r="B114" s="15">
-        <v>2849.524691</v>
+        <v>2405.482591</v>
       </c>
       <c r="C114" s="15">
-        <v>2970.78789</v>
+        <v>2579.476677</v>
       </c>
       <c r="D114" s="15">
-        <v>3067.742494</v>
+        <v>2709.301742</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B115" s="15">
-        <v>2405.482591</v>
-      </c>
+      <c r="B115" s="16"/>
       <c r="C115" s="15">
-        <v>2579.476677</v>
+        <v>1083.624191</v>
       </c>
       <c r="D115" s="15">
-        <v>2709.301742</v>
+        <v>1037.944017</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B116" s="14"/>
+      <c r="B116" s="16"/>
       <c r="C116" s="15">
-        <v>1083.624191</v>
+        <v>1071.044066</v>
       </c>
       <c r="D116" s="15">
-        <v>1037.944017</v>
+        <v>1122.295088</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="B117" s="14"/>
+      <c r="B117" s="15">
+        <v>3470.182441</v>
+      </c>
       <c r="C117" s="15">
-        <v>1071.044066</v>
+        <v>3570.436812</v>
       </c>
       <c r="D117" s="15">
-        <v>1122.295088</v>
+        <v>3543.274217</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B118" s="15">
-        <v>3470.182441</v>
+      <c r="B118" s="14">
+        <v>4786.670306</v>
       </c>
       <c r="C118" s="15">
-        <v>3570.436812</v>
+        <v>4786.670306</v>
       </c>
       <c r="D118" s="15">
-        <v>3543.274217</v>
+        <v>4399.11836</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B119" s="14"/>
+      <c r="B119" s="14">
+        <v>491.7453486</v>
+      </c>
       <c r="C119" s="15">
-        <v>4786.670306</v>
+        <v>491.7453486</v>
       </c>
       <c r="D119" s="15">
-        <v>4399.11836</v>
+        <v>477.5640765</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B120" s="14"/>
+      <c r="B120" s="14">
+        <v>690.4012518</v>
+      </c>
       <c r="C120" s="15">
-        <v>491.7453486</v>
+        <v>690.4012518</v>
       </c>
       <c r="D120" s="15">
-        <v>477.5640765</v>
+        <v>737.2264232</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="B121" s="14"/>
+      <c r="B121" s="14">
+        <v>396.1737338</v>
+      </c>
       <c r="C121" s="15">
-        <v>690.4012518</v>
+        <v>396.1737338</v>
       </c>
       <c r="D121" s="15">
-        <v>737.2264232</v>
+        <v>389.7137691</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B122" s="14"/>
+      <c r="B122" s="15">
+        <v>5261.992916</v>
+      </c>
       <c r="C122" s="15">
-        <v>396.1737338</v>
+        <v>5253.471543</v>
       </c>
       <c r="D122" s="15">
-        <v>389.7137691</v>
+        <v>5269.030545</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B123" s="15">
-        <v>5261.992916</v>
+      <c r="B123" s="14">
+        <v>1296.695977</v>
       </c>
       <c r="C123" s="15">
-        <v>5253.471543</v>
+        <v>1296.695977</v>
       </c>
       <c r="D123" s="15">
-        <v>5269.030545</v>
+        <v>1311.783736</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="B124" s="14"/>
+      <c r="B124" s="14">
+        <v>9757.448683</v>
+      </c>
       <c r="C124" s="15">
-        <v>1296.695977</v>
+        <v>9757.448683</v>
       </c>
       <c r="D124" s="15">
-        <v>1311.783736</v>
+        <v>10121.43798</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B125" s="14"/>
+      <c r="B125" s="14">
+        <v>1315.324867</v>
+      </c>
       <c r="C125" s="15">
-        <v>9757.448683</v>
+        <v>1315.324867</v>
       </c>
       <c r="D125" s="15">
-        <v>10121.43798</v>
+        <v>1306.733423</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="B126" s="14"/>
+      <c r="B126" s="14">
+        <v>1337.171056</v>
+      </c>
       <c r="C126" s="15">
-        <v>1315.324867</v>
+        <v>1337.171056</v>
       </c>
       <c r="D126" s="15">
-        <v>1306.733423</v>
+        <v>1456.572636</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B127" s="14"/>
+      <c r="B127" s="14">
+        <v>2711.300391</v>
+      </c>
       <c r="C127" s="15">
-        <v>1337.171056</v>
+        <v>2711.300391</v>
       </c>
       <c r="D127" s="15">
-        <v>1456.572636</v>
+        <v>2728.506512</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="B128" s="14"/>
+      <c r="B128" s="14">
+        <v>1372.668166</v>
+      </c>
       <c r="C128" s="15">
-        <v>2711.300391</v>
+        <v>1372.668166</v>
       </c>
       <c r="D128" s="15">
-        <v>2728.506512</v>
+        <v>1362.904585</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B129" s="14"/>
+      <c r="B129" s="14">
+        <v>350.8405328</v>
+      </c>
       <c r="C129" s="15">
-        <v>1372.668166</v>
+        <v>350.8405328</v>
       </c>
       <c r="D129" s="15">
-        <v>1362.904585</v>
+        <v>343.590678</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="B130" s="14"/>
+      <c r="B130" s="14">
+        <v>487.5205306</v>
+      </c>
       <c r="C130" s="15">
-        <v>350.8405328</v>
+        <v>487.5205306</v>
       </c>
       <c r="D130" s="15">
-        <v>343.590678</v>
+        <v>551.047689</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="B131" s="14"/>
+      <c r="B131" s="14">
+        <v>638.8548468</v>
+      </c>
       <c r="C131" s="15">
-        <v>487.5205306</v>
+        <v>638.8548468</v>
       </c>
       <c r="D131" s="15">
-        <v>551.047689</v>
+        <v>641.0253457</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="B132" s="14"/>
+      <c r="B132" s="14">
+        <v>1311.044052</v>
+      </c>
       <c r="C132" s="15">
-        <v>638.8548468</v>
+        <v>1311.044052</v>
       </c>
       <c r="D132" s="15">
-        <v>641.0253457</v>
+        <v>1278.786822</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="B133" s="14"/>
+      <c r="B133" s="14">
+        <v>2247.834202</v>
+      </c>
       <c r="C133" s="15">
-        <v>1311.044052</v>
+        <v>2247.834202</v>
       </c>
       <c r="D133" s="15">
-        <v>1278.786822</v>
+        <v>2150.43728</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="B134" s="14"/>
+      <c r="B134" s="14">
+        <v>2356.645002</v>
+      </c>
       <c r="C134" s="15">
-        <v>2247.834202</v>
+        <v>2356.645002</v>
       </c>
       <c r="D134" s="15">
-        <v>2150.43728</v>
+        <v>2468.998816</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="B135" s="14"/>
+      <c r="B135" s="15">
+        <v>6812.19588</v>
+      </c>
       <c r="C135" s="15">
-        <v>2356.645002</v>
+        <v>7310.309923</v>
       </c>
       <c r="D135" s="15">
-        <v>2468.998816</v>
+        <v>7721.964192</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="B136" s="15">
-        <v>6812.19588</v>
+      <c r="B136" s="14">
+        <v>2159.237561</v>
       </c>
       <c r="C136" s="15">
-        <v>7310.309923</v>
+        <v>2159.237561</v>
       </c>
       <c r="D136" s="15">
-        <v>7721.964192</v>
+        <v>2170.585832</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="B137" s="14"/>
+      <c r="B137" s="14">
+        <v>564.389568</v>
+      </c>
       <c r="C137" s="15">
-        <v>2159.237561</v>
+        <v>564.389568</v>
       </c>
       <c r="D137" s="15">
-        <v>2170.585832</v>
+        <v>571.4871883</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="B138" s="14"/>
+      <c r="B138" s="14">
+        <v>862.6581606</v>
+      </c>
       <c r="C138" s="15">
-        <v>564.389568</v>
+        <v>862.6581606</v>
       </c>
       <c r="D138" s="15">
-        <v>571.4871883</v>
+        <v>959.5383534</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="B139" s="14"/>
+      <c r="B139" s="14">
+        <v>2193.46817</v>
+      </c>
       <c r="C139" s="15">
-        <v>862.6581606</v>
+        <v>2193.46817</v>
       </c>
       <c r="D139" s="15">
-        <v>959.5383534</v>
+        <v>2203.777446</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="B140" s="14"/>
+      <c r="B140" s="15">
+        <v>1510.119193</v>
+      </c>
       <c r="C140" s="15">
-        <v>2193.46817</v>
+        <v>1545.775453</v>
       </c>
       <c r="D140" s="15">
-        <v>2203.777446</v>
+        <v>1545.498334</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="B141" s="15">
-        <v>1510.119193</v>
+      <c r="B141" s="14">
+        <v>1376.306794</v>
       </c>
       <c r="C141" s="15">
-        <v>1545.775453</v>
+        <v>1376.306794</v>
       </c>
       <c r="D141" s="15">
-        <v>1545.498334</v>
+        <v>1341.155361</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="B142" s="14"/>
+      <c r="B142" s="14">
+        <v>1349.475017</v>
+      </c>
       <c r="C142" s="15">
-        <v>1376.306794</v>
+        <v>1349.475017</v>
       </c>
       <c r="D142" s="15">
-        <v>1341.155361</v>
+        <v>1431.804936</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="B143" s="14"/>
+      <c r="B143" s="14">
+        <v>1734.596362</v>
+      </c>
       <c r="C143" s="15">
-        <v>1349.475017</v>
+        <v>1734.596362</v>
       </c>
       <c r="D143" s="15">
-        <v>1431.804936</v>
+        <v>2081.121932</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="B144" s="14"/>
+      <c r="B144" s="14">
+        <v>312.7560486</v>
+      </c>
       <c r="C144" s="15">
-        <v>1734.596362</v>
+        <v>312.7560486</v>
       </c>
       <c r="D144" s="15">
-        <v>2081.121932</v>
+        <v>297.0941161</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="B145" s="14"/>
+      <c r="B145" s="16"/>
       <c r="C145" s="15">
-        <v>312.7560486</v>
+        <v>1408.009036</v>
       </c>
       <c r="D145" s="15">
-        <v>297.0941161</v>
+        <v>1389.063706</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="B146" s="14"/>
+      <c r="B146" s="16"/>
       <c r="C146" s="15">
-        <v>1408.009036</v>
+        <v>1651.299808</v>
       </c>
       <c r="D146" s="15">
-        <v>1389.063706</v>
+        <v>1711.797113</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="B147" s="14"/>
+      <c r="B147" s="16"/>
       <c r="C147" s="15">
-        <v>1651.299808</v>
+        <v>1826.456872</v>
       </c>
       <c r="D147" s="15">
-        <v>1711.797113</v>
+        <v>1679.675424</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="B148" s="14"/>
+      <c r="B148" s="16"/>
       <c r="C148" s="15">
-        <v>1826.456872</v>
+        <v>407.3724137</v>
       </c>
       <c r="D148" s="15">
-        <v>1679.675424</v>
+        <v>405.6089148</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="B149" s="14"/>
+      <c r="B149" s="16"/>
       <c r="C149" s="15">
-        <v>407.3724137</v>
+        <v>1094.72587</v>
       </c>
       <c r="D149" s="15">
-        <v>405.6089148</v>
+        <v>1067.780253</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="B150" s="14"/>
+      <c r="B150" s="16"/>
       <c r="C150" s="15">
-        <v>1094.72587</v>
+        <v>3019.819231</v>
       </c>
       <c r="D150" s="15">
-        <v>1067.780253</v>
+        <v>2724.224432</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B151" s="14"/>
+      <c r="B151" s="15">
+        <v>6950.49909</v>
+      </c>
       <c r="C151" s="15">
-        <v>3019.819231</v>
+        <v>6944.480723</v>
       </c>
       <c r="D151" s="15">
-        <v>2724.224432</v>
+        <v>6856.992914</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="B152" s="15">
-        <v>6950.49909</v>
-      </c>
+      <c r="B152" s="16"/>
       <c r="C152" s="15">
-        <v>6944.480723</v>
+        <v>742.3471997</v>
       </c>
       <c r="D152" s="15">
-        <v>6856.992914</v>
+        <v>723.8874258</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="B153" s="14"/>
+      <c r="B153" s="16"/>
       <c r="C153" s="15">
-        <v>742.3471997</v>
+        <v>152.4718061</v>
       </c>
       <c r="D153" s="15">
-        <v>723.8874258</v>
+        <v>129.0644214</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="B154" s="14"/>
+      <c r="B154" s="16"/>
       <c r="C154" s="15">
-        <v>152.4718061</v>
+        <v>773.021169</v>
       </c>
       <c r="D154" s="15">
-        <v>129.0644214</v>
+        <v>796.6325009</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="B155" s="14"/>
+      <c r="B155" s="16"/>
       <c r="C155" s="15">
-        <v>773.021169</v>
+        <v>593.668207</v>
       </c>
       <c r="D155" s="15">
-        <v>796.6325009</v>
+        <v>559.7258753</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="B156" s="14"/>
+      <c r="B156" s="15">
+        <v>4289.404073</v>
+      </c>
       <c r="C156" s="15">
-        <v>593.668207</v>
+        <v>4605.420463</v>
       </c>
       <c r="D156" s="15">
-        <v>559.7258753</v>
+        <v>4689.842388</v>
       </c>
     </row>
     <row r="157">
@@ -2639,39 +2778,39 @@
         <v>177</v>
       </c>
       <c r="B157" s="15">
-        <v>4289.404073</v>
+        <v>5853.962017</v>
       </c>
       <c r="C157" s="15">
-        <v>4605.420463</v>
+        <v>6438.755199</v>
       </c>
       <c r="D157" s="15">
-        <v>4689.842388</v>
+        <v>5909.609764</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="B158" s="15">
-        <v>5853.962017</v>
-      </c>
+      <c r="B158" s="16"/>
       <c r="C158" s="15">
-        <v>6438.755199</v>
+        <v>369.6791458</v>
       </c>
       <c r="D158" s="15">
-        <v>5909.609764</v>
+        <v>367.2652676</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="B159" s="14"/>
+      <c r="B159" s="15">
+        <v>4454.741779</v>
+      </c>
       <c r="C159" s="15">
-        <v>369.6791458</v>
+        <v>4391.560073</v>
       </c>
       <c r="D159" s="15">
-        <v>367.2652676</v>
+        <v>4375.379188</v>
       </c>
     </row>
     <row r="160">
@@ -2679,321 +2818,357 @@
         <v>180</v>
       </c>
       <c r="B160" s="15">
-        <v>4454.741779</v>
+        <v>4114.398381</v>
       </c>
       <c r="C160" s="15">
-        <v>4391.560073</v>
+        <v>4183.534387</v>
       </c>
       <c r="D160" s="15">
-        <v>4375.379188</v>
+        <v>4177.590934</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="B161" s="15">
-        <v>4114.398381</v>
+      <c r="B161" s="14">
+        <v>6232.464156</v>
       </c>
       <c r="C161" s="15">
-        <v>4183.534387</v>
+        <v>6232.464156</v>
       </c>
       <c r="D161" s="15">
-        <v>4177.590934</v>
+        <v>6677.557661</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="B162" s="14"/>
+      <c r="B162" s="14">
+        <v>474.8608064</v>
+      </c>
       <c r="C162" s="15">
-        <v>6232.464156</v>
+        <v>474.8608064</v>
       </c>
       <c r="D162" s="15">
-        <v>6677.557661</v>
+        <v>483.4379745</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="B163" s="14"/>
+      <c r="B163" s="14">
+        <v>1057.48009</v>
+      </c>
       <c r="C163" s="15">
-        <v>474.8608064</v>
+        <v>1057.48009</v>
       </c>
       <c r="D163" s="15">
-        <v>483.4379745</v>
+        <v>1108.986925</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="B164" s="14"/>
+      <c r="B164" s="14">
+        <v>708.3306547</v>
+      </c>
       <c r="C164" s="15">
-        <v>1057.48009</v>
+        <v>708.3306547</v>
       </c>
       <c r="D164" s="15">
-        <v>1108.986925</v>
+        <v>715.61398</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="B165" s="14"/>
+      <c r="B165" s="14">
+        <v>457.1319652</v>
+      </c>
       <c r="C165" s="15">
-        <v>708.3306547</v>
+        <v>457.1319652</v>
       </c>
       <c r="D165" s="15">
-        <v>715.61398</v>
+        <v>448.3908226</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="B166" s="14"/>
+      <c r="B166" s="15">
+        <v>2495.843402</v>
+      </c>
       <c r="C166" s="15">
-        <v>457.1319652</v>
+        <v>2565.408312</v>
       </c>
       <c r="D166" s="15">
-        <v>448.3908226</v>
+        <v>2566.574313</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="B167" s="15">
-        <v>2495.843402</v>
-      </c>
+      <c r="B167" s="16"/>
       <c r="C167" s="15">
-        <v>2565.408312</v>
+        <v>571.7637732</v>
       </c>
       <c r="D167" s="15">
-        <v>2566.574313</v>
+        <v>571.540398</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="B168" s="14"/>
+      <c r="B168" s="16"/>
       <c r="C168" s="15">
-        <v>571.7637732</v>
+        <v>580.5610646</v>
       </c>
       <c r="D168" s="15">
-        <v>571.540398</v>
+        <v>575.7355234</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="B169" s="14"/>
+      <c r="B169" s="15">
+        <v>2028.081267</v>
+      </c>
       <c r="C169" s="15">
-        <v>580.5610646</v>
+        <v>2082.81023</v>
       </c>
       <c r="D169" s="15">
-        <v>575.7355234</v>
+        <v>2059.889048</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="B170" s="15">
-        <v>2028.081267</v>
-      </c>
+      <c r="B170" s="16"/>
       <c r="C170" s="15">
-        <v>2082.81023</v>
+        <v>764.1374775</v>
       </c>
       <c r="D170" s="15">
-        <v>2059.889048</v>
+        <v>783.3353346</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="B171" s="14"/>
+      <c r="B171" s="15">
+        <v>4758.277759</v>
+      </c>
       <c r="C171" s="15">
-        <v>764.1374775</v>
+        <v>4616.434822</v>
       </c>
       <c r="D171" s="15">
-        <v>783.3353346</v>
+        <v>4613.578098</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="B172" s="15">
-        <v>4758.277759</v>
+      <c r="B172" s="14">
+        <v>19120.34428</v>
       </c>
       <c r="C172" s="15">
-        <v>4616.434822</v>
+        <v>19120.34428</v>
       </c>
       <c r="D172" s="15">
-        <v>4613.578098</v>
+        <v>18899.35772</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="B173" s="14"/>
+      <c r="B173" s="14">
+        <v>1592.131494</v>
+      </c>
       <c r="C173" s="15">
-        <v>19120.34428</v>
+        <v>1592.131494</v>
       </c>
       <c r="D173" s="15">
-        <v>18899.35772</v>
+        <v>1741.722606</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="B174" s="14"/>
+      <c r="B174" s="14">
+        <v>5093.064779</v>
+      </c>
       <c r="C174" s="15">
-        <v>1592.131494</v>
+        <v>5093.064779</v>
       </c>
       <c r="D174" s="15">
-        <v>1741.722606</v>
+        <v>5174.400368</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="B175" s="14"/>
+      <c r="B175" s="14">
+        <v>549.5406558</v>
+      </c>
       <c r="C175" s="15">
-        <v>5093.064779</v>
+        <v>549.5406558</v>
       </c>
       <c r="D175" s="15">
-        <v>5174.400368</v>
+        <v>542.6533304</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="B176" s="14"/>
+      <c r="B176" s="14">
+        <v>6363.393314</v>
+      </c>
       <c r="C176" s="15">
-        <v>549.5406558</v>
+        <v>6363.393314</v>
       </c>
       <c r="D176" s="15">
-        <v>542.6533304</v>
+        <v>6792.393503</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="B177" s="14"/>
+      <c r="B177" s="14">
+        <v>374.7736829</v>
+      </c>
       <c r="C177" s="15">
-        <v>6363.393314</v>
+        <v>374.7736829</v>
       </c>
       <c r="D177" s="15">
-        <v>6792.393503</v>
+        <v>376.9233584</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="B178" s="14"/>
+      <c r="B178" s="14">
+        <v>261.0041698</v>
+      </c>
       <c r="C178" s="15">
-        <v>374.7736829</v>
+        <v>261.0041698</v>
       </c>
       <c r="D178" s="15">
-        <v>376.9233584</v>
+        <v>292.0835599</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="B179" s="14"/>
+      <c r="B179" s="14">
+        <v>4833.445079</v>
+      </c>
       <c r="C179" s="15">
-        <v>261.0041698</v>
+        <v>4833.445079</v>
       </c>
       <c r="D179" s="15">
-        <v>292.0835599</v>
+        <v>4905.960485</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="B180" s="14"/>
+      <c r="B180" s="14">
+        <v>693.4434919</v>
+      </c>
       <c r="C180" s="15">
-        <v>4833.445079</v>
+        <v>693.4434919</v>
       </c>
       <c r="D180" s="15">
-        <v>4905.960485</v>
+        <v>720.3659675</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="B181" s="14"/>
+      <c r="B181" s="14">
+        <v>2078.490179</v>
+      </c>
       <c r="C181" s="15">
-        <v>693.4434919</v>
+        <v>2078.490179</v>
       </c>
       <c r="D181" s="15">
-        <v>720.3659675</v>
+        <v>2018.773101</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="B182" s="14"/>
+      <c r="B182" s="14">
+        <v>670.7907052</v>
+      </c>
       <c r="C182" s="15">
-        <v>2078.490179</v>
+        <v>670.7907052</v>
       </c>
       <c r="D182" s="15">
-        <v>2018.773101</v>
+        <v>676.0274025</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="B183" s="14"/>
+      <c r="B183" s="14">
+        <v>59.12006572</v>
+      </c>
       <c r="C183" s="15">
-        <v>670.7907052</v>
+        <v>59.12006572</v>
       </c>
       <c r="D183" s="15">
-        <v>676.0274025</v>
+        <v>58.64266536</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="B184" s="14"/>
+      <c r="B184" s="14">
+        <v>670.7907052</v>
+      </c>
       <c r="C184" s="15">
-        <v>59.12006572</v>
+        <v>670.7907052</v>
       </c>
       <c r="D184" s="15">
-        <v>58.64266536</v>
+        <v>676.0274025</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="B185" s="14"/>
+      <c r="B185" s="15">
+        <v>2846.855923</v>
+      </c>
       <c r="C185" s="15">
-        <v>670.7907052</v>
+        <v>3178.327899</v>
       </c>
       <c r="D185" s="15">
-        <v>676.0274025</v>
+        <v>3080.725034</v>
       </c>
     </row>
     <row r="186">
@@ -3001,13 +3176,13 @@
         <v>206</v>
       </c>
       <c r="B186" s="15">
-        <v>2846.855923</v>
+        <v>3272.024947</v>
       </c>
       <c r="C186" s="15">
-        <v>3178.327899</v>
+        <v>3323.248637</v>
       </c>
       <c r="D186" s="15">
-        <v>3080.725034</v>
+        <v>3409.074845</v>
       </c>
     </row>
     <row r="187">
@@ -3015,366 +3190,352 @@
         <v>207</v>
       </c>
       <c r="B187" s="15">
-        <v>3272.024947</v>
+        <v>4810.954599</v>
       </c>
       <c r="C187" s="15">
-        <v>3323.248637</v>
+        <v>5131.537099</v>
       </c>
       <c r="D187" s="15">
-        <v>3409.074845</v>
+        <v>5269.485998</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="B188" s="15">
-        <v>4810.954599</v>
-      </c>
+      <c r="B188" s="16"/>
       <c r="C188" s="15">
-        <v>5131.537099</v>
+        <v>668.1349651</v>
       </c>
       <c r="D188" s="15">
-        <v>5269.485998</v>
+        <v>749.3062631</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="B189" s="14"/>
+      <c r="B189" s="16"/>
       <c r="C189" s="15">
-        <v>668.1349651</v>
+        <v>1828.518571</v>
       </c>
       <c r="D189" s="15">
-        <v>749.3062631</v>
+        <v>1720.290415</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="B190" s="14"/>
+      <c r="B190" s="16"/>
       <c r="C190" s="15">
-        <v>1828.518571</v>
+        <v>3020.938241</v>
       </c>
       <c r="D190" s="15">
-        <v>1720.290415</v>
+        <v>3087.269917</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="B191" s="14"/>
+      <c r="B191" s="16"/>
       <c r="C191" s="15">
-        <v>3020.938241</v>
+        <v>462.5728075</v>
       </c>
       <c r="D191" s="15">
-        <v>3087.269917</v>
+        <v>462.969461</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="B192" s="14"/>
+      <c r="B192" s="16"/>
       <c r="C192" s="15">
-        <v>462.5728075</v>
+        <v>1987.575903</v>
       </c>
       <c r="D192" s="15">
-        <v>462.969461</v>
+        <v>1878.925894</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="B193" s="14"/>
+      <c r="B193" s="16"/>
       <c r="C193" s="15">
-        <v>1987.575903</v>
+        <v>302.7309035</v>
       </c>
       <c r="D193" s="15">
-        <v>1878.925894</v>
+        <v>285.7859401</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="B194" s="14"/>
+      <c r="B194" s="16"/>
       <c r="C194" s="15">
-        <v>302.7309035</v>
+        <v>5011.619271</v>
       </c>
       <c r="D194" s="15">
-        <v>285.7859401</v>
+        <v>4944.322388</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="B195" s="14"/>
+      <c r="B195" s="16"/>
       <c r="C195" s="15">
-        <v>5011.619271</v>
+        <v>1376.460341</v>
       </c>
       <c r="D195" s="15">
-        <v>4944.322388</v>
+        <v>1367.589027</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="B196" s="14"/>
+      <c r="B196" s="16"/>
       <c r="C196" s="15">
-        <v>1376.460341</v>
+        <v>1408.009036</v>
       </c>
       <c r="D196" s="15">
-        <v>1367.589027</v>
+        <v>1389.063706</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="B197" s="14"/>
+      <c r="B197" s="16"/>
       <c r="C197" s="15">
-        <v>1408.009036</v>
+        <v>549.5406558</v>
       </c>
       <c r="D197" s="15">
-        <v>1389.063706</v>
+        <v>542.6533304</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="B198" s="14"/>
+      <c r="B198" s="16"/>
       <c r="C198" s="15">
-        <v>549.5406558</v>
+        <v>670.7907052</v>
       </c>
       <c r="D198" s="15">
-        <v>542.6533304</v>
+        <v>676.0274025</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="B199" s="14"/>
+      <c r="B199" s="16"/>
       <c r="C199" s="15">
-        <v>670.7907052</v>
+        <v>14537.57046</v>
       </c>
       <c r="D199" s="15">
-        <v>676.0274025</v>
+        <v>14346.93671</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="B200" s="14"/>
+      <c r="B200" s="16"/>
       <c r="C200" s="15">
-        <v>14537.57046</v>
+        <v>956.4771965</v>
       </c>
       <c r="D200" s="15">
-        <v>14346.93671</v>
+        <v>950.5108791</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="B201" s="14"/>
+      <c r="B201" s="15">
+        <v>1540.491107</v>
+      </c>
       <c r="C201" s="15">
-        <v>956.4771965</v>
+        <v>1528.20253</v>
       </c>
       <c r="D201" s="15">
-        <v>950.5108791</v>
+        <v>1561.835094</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B202" s="15">
-        <v>1540.491107</v>
-      </c>
+      <c r="B202" s="16"/>
       <c r="C202" s="15">
-        <v>1528.20253</v>
+        <v>469.7336214</v>
       </c>
       <c r="D202" s="15">
-        <v>1561.835094</v>
+        <v>462.4495451</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="B203" s="14"/>
+      <c r="B203" s="16"/>
       <c r="C203" s="15">
-        <v>469.7336214</v>
+        <v>2553.167449</v>
       </c>
       <c r="D203" s="15">
-        <v>462.4495451</v>
+        <v>2686.53096</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="B204" s="14"/>
+      <c r="B204" s="16"/>
       <c r="C204" s="15">
-        <v>2553.167449</v>
+        <v>2190.297649</v>
       </c>
       <c r="D204" s="15">
-        <v>2686.53096</v>
+        <v>2108.848637</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="B205" s="14"/>
+      <c r="B205" s="16"/>
       <c r="C205" s="15">
-        <v>2190.297649</v>
+        <v>1350.511991</v>
       </c>
       <c r="D205" s="15">
-        <v>2108.848637</v>
+        <v>1365.352147</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="B206" s="14"/>
+      <c r="B206" s="15">
+        <v>6917.426328</v>
+      </c>
       <c r="C206" s="15">
-        <v>1350.511991</v>
+        <v>6915.844739</v>
       </c>
       <c r="D206" s="15">
-        <v>1365.352147</v>
+        <v>6812.489605</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="B207" s="15">
-        <v>6917.426328</v>
-      </c>
+      <c r="B207" s="16"/>
       <c r="C207" s="15">
-        <v>6915.844739</v>
+        <v>1419.477767</v>
       </c>
       <c r="D207" s="15">
-        <v>6812.489605</v>
+        <v>1625.988144</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="B208" s="14"/>
+      <c r="B208" s="16"/>
       <c r="C208" s="15">
-        <v>1419.477767</v>
+        <v>2271.187535</v>
       </c>
       <c r="D208" s="15">
-        <v>1625.988144</v>
+        <v>2447.284134</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="B209" s="14"/>
+      <c r="B209" s="16"/>
       <c r="C209" s="15">
-        <v>2271.187535</v>
+        <v>667.6464664</v>
       </c>
       <c r="D209" s="15">
-        <v>2447.284134</v>
+        <v>674.7836485</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="B210" s="14"/>
+      <c r="B210" s="16"/>
       <c r="C210" s="15">
-        <v>667.6464664</v>
+        <v>1894.279678</v>
       </c>
       <c r="D210" s="15">
-        <v>674.7836485</v>
+        <v>1869.407403</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="B211" s="14"/>
+      <c r="B211" s="16"/>
       <c r="C211" s="15">
-        <v>1894.279678</v>
+        <v>323.7186681</v>
       </c>
       <c r="D211" s="15">
-        <v>1869.407403</v>
+        <v>240.4138571</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="B212" s="14"/>
+      <c r="B212" s="16"/>
       <c r="C212" s="15">
-        <v>323.7186681</v>
+        <v>2655.850165</v>
       </c>
       <c r="D212" s="15">
-        <v>240.4138571</v>
+        <v>2680.541534</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="B213" s="14"/>
+      <c r="B213" s="16"/>
       <c r="C213" s="15">
-        <v>2655.850165</v>
+        <v>292.2643257</v>
       </c>
       <c r="D213" s="15">
-        <v>2680.541534</v>
+        <v>292.3876772</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="B214" s="14"/>
+      <c r="B214" s="16"/>
       <c r="C214" s="15">
-        <v>292.2643257</v>
+        <v>631.459248</v>
       </c>
       <c r="D214" s="15">
-        <v>292.3876772</v>
+        <v>616.627806</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="B215" s="14"/>
+      <c r="B215" s="16"/>
       <c r="C215" s="15">
-        <v>631.459248</v>
+        <v>757.5378109</v>
       </c>
       <c r="D215" s="15">
-        <v>616.627806</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="B216" s="14"/>
-      <c r="C216" s="15">
-        <v>757.5378109</v>
-      </c>
-      <c r="D216" s="15">
         <v>742.1693288</v>
       </c>
     </row>
